--- a/DSA_Revision/FINAL450.xlsx
+++ b/DSA_Revision/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programs\DSA_Revision\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\programs\DSA_Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84A0C56-8DDF-4355-918A-BA9BF4EBE130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE00F7-F75A-4CA4-8E3E-D156D962BBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF(C6:C481, C2)</f>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <f>COUNTIF(C6:C481, C3)</f>
@@ -2201,7 +2201,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2212,7 +2212,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2223,7 +2223,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2234,7 +2234,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">

--- a/DSA_Revision/FINAL450.xlsx
+++ b/DSA_Revision/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\programs\DSA_Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBE00F7-F75A-4CA4-8E3E-D156D962BBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7AF7B9-4CB4-4AB8-8541-74974907D8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1872,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1933,7 +1927,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF(C6:C481, C2)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <f>COUNTIF(C6:C481, C3)</f>
@@ -2245,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="21">

--- a/DSA_Revision/FINAL450.xlsx
+++ b/DSA_Revision/FINAL450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\programs\DSA_Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7AF7B9-4CB4-4AB8-8541-74974907D8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96168F-F45F-4B89-9C60-241609A80906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1866,7 +1866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -2250,7 +2250,7 @@
         <v>35</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="21">

--- a/DSA_Revision/FINAL450.xlsx
+++ b/DSA_Revision/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\programs\DSA_Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96168F-F45F-4B89-9C60-241609A80906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765CF6D7-AB19-4DC9-8110-2927C4B7B5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF(C6:C481, C2)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <f>COUNTIF(C6:C481, C3)</f>
@@ -2261,7 +2261,7 @@
         <v>36</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="21">
@@ -2272,7 +2272,7 @@
         <v>37</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
@@ -2340,7 +2340,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2351,7 +2351,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">

--- a/DSA_Revision/FINAL450.xlsx
+++ b/DSA_Revision/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\programs\DSA_Revision\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765CF6D7-AB19-4DC9-8110-2927C4B7B5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F6F992-1738-439A-9FA2-F40D5DABC880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D6">
         <f>COUNTIF(C6:C481, C2)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <f>COUNTIF(C6:C481, C3)</f>
@@ -2373,7 +2373,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2384,7 +2384,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="21">
@@ -3333,7 +3333,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
